--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nfdi4plant-my.sharepoint.com/personal/brilhaus_nfdi4plants_org/Documents/Swate-templates_git/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DBD0AB-A018-C54C-BA29-A6C94F98FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C5100ED9-C82F-7A4C-A72F-2BD535195C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A3647EF-11F7-443A-9964-794E7A5DBFD1}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9400" yWindow="-21100" windowWidth="23640" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,157 +49,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EC0E6E86-F5C4-42E7-BF0F-2B13153D8083}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=21b9dc9c-3d64-4082-aec3-abddb6642819</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F2027EE6-C224-47AC-851D-266B74FE05E9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A53C3DFC-C77E-4C6C-92FD-F5E1E1F3D6C3}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{883A3F8C-24B0-4B1F-9556-94D76D3F69C5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3D3DBF38-10CF-4E3B-A5B6-CDED3C46A761}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{965539F1-D177-4AC3-BEB1-907F7B82C8F2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{659A1FC0-5FFD-4F05-BE09-6DAFC6EC5B17}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{41174B84-56BD-47C4-90D5-FF9C83EBE5EE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{08E74F2B-C1DC-4068-97CD-989A61FB41AF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -204,11 +126,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Source Name</t>
   </si>
   <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
     <t>Parameter [light intensity exposure]</t>
   </si>
   <si>
@@ -221,18 +152,69 @@
     <t>Term Accession Number (PECO:0007224)</t>
   </si>
   <si>
+    <t>Parameter [humidity day]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit </t>
   </si>
   <si>
+    <t>Term Source REF (DPBO:0000005)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000005)</t>
+  </si>
+  <si>
+    <t>Parameter [humidity night]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit  </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000006)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000006)</t>
+  </si>
+  <si>
+    <t>Parameter [temperature day]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit   </t>
   </si>
   <si>
+    <t>Term Source REF (DPBO:0000007)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000007)</t>
+  </si>
+  <si>
+    <t>Parameter [temperature night]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit    </t>
   </si>
   <si>
+    <t>Term Source REF (DPBO:0000008)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000008)</t>
+  </si>
+  <si>
     <t>Sample Name</t>
   </si>
   <si>
+    <t>growth protocol</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -242,6 +224,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Growth chamber</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -251,9 +236,15 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Covers minimum growth chamber conditions</t>
+  </si>
+  <si>
     <t>Organisation</t>
   </si>
   <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
     <t>Table</t>
   </si>
   <si>
@@ -278,6 +269,12 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>growth chamber</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -317,9 +314,15 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
+    <t>CEPLAS (https://ror.org/034waa237)</t>
+  </si>
+  <si>
     <t>Authors ORCID</t>
   </si>
   <si>
+    <t>https://orcid.org/0000-0001-9021-3197</t>
+  </si>
+  <si>
     <t>Authors Role</t>
   </si>
   <si>
@@ -327,57 +330,6 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
-    <t>DataPLANT</t>
-  </si>
-  <si>
-    <t>Parameter [humidity night]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit  </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000006)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000006)</t>
-  </si>
-  <si>
-    <t>Parameter [humidity day]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000005)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000005)</t>
-  </si>
-  <si>
-    <t>Parameter [temperature day]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000007)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000007)</t>
-  </si>
-  <si>
-    <t>Parameter [temperature night]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000008)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000008)</t>
-  </si>
-  <si>
-    <t>Growth chamber</t>
-  </si>
-  <si>
-    <t>Covers minimum growth chamber conditions</t>
   </si>
 </sst>
 </file>
@@ -389,7 +341,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree celsius&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +353,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,10 +477,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -553,11 +514,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -616,10 +584,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -641,31 +615,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}" name="annotationTableFunnyLion10" displayName="annotationTableFunnyLion10" ref="A1:V2" totalsRowShown="0">
-  <autoFilter ref="A1:V2" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}" name="annotationTableFunnyLion10" displayName="annotationTableFunnyLion10" ref="A1:Y2" totalsRowShown="0">
+  <autoFilter ref="A1:Y2" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{E65C7F30-B885-430C-B92E-859D6B7ABE21}" name="Source Name"/>
+    <tableColumn id="19" xr3:uid="{A58F7C42-F084-4736-9110-B3DA9D2332A6}" name="Protocol Type" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{6282560E-C712-4883-A366-DA006438DEDB}" name="Term Source REF (DPBO:1000161)" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{6F66786D-615D-4121-9BF6-341D465D2A59}" name="Term Accession Number (DPBO:1000161)" dataDxfId="21"/>
     <tableColumn id="66" xr3:uid="{F09216D6-64E2-4F6C-B16C-7EFBD7E6D1C4}" name="Parameter [light intensity exposure]" dataDxfId="20"/>
     <tableColumn id="67" xr3:uid="{E7897560-C18E-4F2D-989F-2457F9FBBBA2}" name="Unit" dataDxfId="19"/>
     <tableColumn id="68" xr3:uid="{B4AE18F9-907F-4756-BE3F-02EB88777D16}" name="Term Source REF (PECO:0007224)" dataDxfId="18"/>
     <tableColumn id="69" xr3:uid="{C0F8DE55-2B81-41DD-BAA9-1FB9EB02C87D}" name="Term Accession Number (PECO:0007224)" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{FD873136-D835-6E4B-B928-25C7998CA754}" name="Parameter [humidity day]" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{2C448A18-EBBD-B04D-83EF-077523EEEA12}" name="Unit " dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{6B63A6A6-721F-F84D-A0E5-1DB37DA47AEF}" name="Term Source REF (DPBO:0000005)" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{11A2CE44-8069-374A-90AD-68BDDC4EC9A3}" name="Term Accession Number (DPBO:0000005)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D5721519-37F5-5B44-BCEE-121041311907}" name="Parameter [humidity night]" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{9BB7EF69-A899-964D-B246-DB6A68C4FBF0}" name="Unit  " dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FC184F4F-B66B-4C4C-A4FD-C4EF15F10052}" name="Term Source REF (DPBO:0000006)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{0E36A9B5-E33E-6E46-AD51-193E62329686}" name="Term Accession Number (DPBO:0000006)" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{4D56E966-F424-1F48-92A1-7B7000F2DFE8}" name="Parameter [temperature day]" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{442E0312-3FD8-0D49-AA09-E7D58346F816}" name="Unit   " dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{C71D161D-0B52-C646-AFA9-8AB1508B4280}" name="Term Source REF (DPBO:0000007)" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{64EC1993-B005-AC4B-ACB8-3329E9960636}" name="Term Accession Number (DPBO:0000007)" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{71BE6137-6DE3-6D45-AF2F-2647F8545A61}" name="Parameter [temperature night]" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{BB572D23-B010-EE41-B498-528CFB807002}" name="Unit    " dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{0466B0B1-BE19-3447-9E74-67EF0DA0D9A9}" name="Term Source REF (DPBO:0000008)" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{6E4C0134-DE6C-774C-B704-2B375B1D4B98}" name="Term Accession Number (DPBO:0000008)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4F4F1F29-A58D-40AC-9786-677D345476B9}" name="Sample Name" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{FD873136-D835-6E4B-B928-25C7998CA754}" name="Parameter [humidity day]" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{2C448A18-EBBD-B04D-83EF-077523EEEA12}" name="Unit " dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{6B63A6A6-721F-F84D-A0E5-1DB37DA47AEF}" name="Term Source REF (DPBO:0000005)" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{11A2CE44-8069-374A-90AD-68BDDC4EC9A3}" name="Term Accession Number (DPBO:0000005)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D5721519-37F5-5B44-BCEE-121041311907}" name="Parameter [humidity night]" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9BB7EF69-A899-964D-B246-DB6A68C4FBF0}" name="Unit  " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FC184F4F-B66B-4C4C-A4FD-C4EF15F10052}" name="Term Source REF (DPBO:0000006)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{0E36A9B5-E33E-6E46-AD51-193E62329686}" name="Term Accession Number (DPBO:0000006)" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{4D56E966-F424-1F48-92A1-7B7000F2DFE8}" name="Parameter [temperature day]" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{442E0312-3FD8-0D49-AA09-E7D58346F816}" name="Unit   " dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{C71D161D-0B52-C646-AFA9-8AB1508B4280}" name="Term Source REF (DPBO:0000007)" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{64EC1993-B005-AC4B-ACB8-3329E9960636}" name="Term Accession Number (DPBO:0000007)" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{71BE6137-6DE3-6D45-AF2F-2647F8545A61}" name="Parameter [temperature night]" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{BB572D23-B010-EE41-B498-528CFB807002}" name="Unit    " dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{0466B0B1-BE19-3447-9E74-67EF0DA0D9A9}" name="Term Source REF (DPBO:0000008)" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{6E4C0134-DE6C-774C-B704-2B375B1D4B98}" name="Term Accession Number (DPBO:0000008)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4F4F1F29-A58D-40AC-9786-677D345476B9}" name="Sample Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,6 +993,11 @@
   <we:properties/>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
 </we:webextension>
 </file>
 
@@ -1023,167 +1005,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="30" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" style="13" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.1640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="32.5" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="32.5" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="32.5" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="32.5" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="32.5" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="32.5" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="32.5" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="32.5" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="32.5" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="32.5" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.5" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="32.5" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="27.33203125" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="32.5" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="32.5" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="32.5" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="30.83203125" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="32.5" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="32.5" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="40.83203125" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="40.83203125" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="40.83203125" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="40.83203125" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.5" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="27.33203125" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.5" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="38.5" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="35.33203125" hidden="1" customWidth="1"/>
-    <col min="145" max="145" width="42.33203125" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.42578125" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="31.42578125" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="35.28515625" hidden="1" customWidth="1"/>
+    <col min="145" max="145" width="42.28515625" hidden="1" customWidth="1"/>
+    <col min="146" max="146" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="45.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1192,98 +1174,116 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="T2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1296,198 +1296,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D477AB12-3875-4FE8-9DF0-4FB692C890E9}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.95">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.95">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.95">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.95">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B27" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{D6AB6060-7D1B-204B-B81B-B3297F612333}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nfdi4plant-my.sharepoint.com/personal/brilhaus_nfdi4plants_org/Documents/Swate-templates_git/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C5100ED9-C82F-7A4C-A72F-2BD535195C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A3647EF-11F7-443A-9964-794E7A5DBFD1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="109_{F4D1C19E-EEE7-F247-88EE-DEC5B564D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17656E9F-AD9D-E848-AFCC-74200C987C27}"/>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-21100" windowWidth="23640" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,76 +46,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EC0E6E86-F5C4-42E7-BF0F-2B13153D8083}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=21b9dc9c-3d64-4082-aec3-abddb6642819</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F2027EE6-C224-47AC-851D-266B74FE05E9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A53C3DFC-C77E-4C6C-92FD-F5E1E1F3D6C3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{883A3F8C-24B0-4B1F-9556-94D76D3F69C5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3D3DBF38-10CF-4E3B-A5B6-CDED3C46A761}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{965539F1-D177-4AC3-BEB1-907F7B82C8F2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{659A1FC0-5FFD-4F05-BE09-6DAFC6EC5B17}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{41174B84-56BD-47C4-90D5-FF9C83EBE5EE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{08E74F2B-C1DC-4068-97CD-989A61FB41AF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -126,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -230,9 +308,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -269,9 +344,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>plants</t>
-  </si>
-  <si>
     <t>growth chamber</t>
   </si>
   <si>
@@ -330,6 +402,18 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -341,7 +425,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree celsius&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,159 +1093,159 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="30" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="13" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.42578125" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.42578125" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="35.28515625" hidden="1" customWidth="1"/>
-    <col min="145" max="145" width="42.28515625" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.1640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="32.5" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="32.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="32.5" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="32.5" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="32.5" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="32.5" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="32.5" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="32.5" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="32.5" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="32.5" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.5" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="32.5" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="32.5" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="32.5" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="32.5" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="32.5" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="32.5" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.5" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="31.5" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="38.5" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="145" max="145" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="146" max="146" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="45.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
@@ -1299,17 +1383,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1325,183 +1409,187 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.95">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.95">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.95">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.95">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.95">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.95">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nfdi4plant-my.sharepoint.com/personal/brilhaus_nfdi4plants_org/Documents/Swate-templates_git/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="109_{F4D1C19E-EEE7-F247-88EE-DEC5B564D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFC45E1-3E8D-4D72-A605-0C8C4AA35215}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28504583-6299-944A-9FE6-851816C358E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,76 +46,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{28608245-99E2-4976-90EC-C2615A62D31D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=d81e996d-f5b7-42ae-ab21-4b9b745926ce</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA597719-DF57-4764-9B42-BF9C5EDFEB54}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{864C055B-6DCE-4781-A0F0-12FAFD3E7474}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{4B042B95-99B8-4875-9CFA-A25EAB642D56}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{CF5226E9-AE46-4139-A908-B7207A41A138}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{B5D0AA6A-5860-45A2-B29C-5D3B15EC4D59}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{981121BE-7BB1-401D-BD5E-B4A01E83784A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{D3956D71-4CC2-4867-8B6C-A8884B956843}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{58F54590-CB69-4851-80AE-FAF6A07D0123}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -126,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Source Name</t>
   </si>
@@ -324,6 +402,27 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>microeinstein per square meter per second</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000160</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+  </si>
+  <si>
+    <t>degree celsius</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
 </sst>
 </file>
@@ -335,7 +434,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;degree celsius&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -510,7 +609,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -984,30 +1082,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5D15D7-4B0D-4DDA-9F8C-DBBA2C657F04}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="31.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="28.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,37 +1173,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" s="10">
         <v>400</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
       <c r="F2" s="11">
         <v>30</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
       <c r="J2" s="11">
         <v>30</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
       <c r="N2" s="12">
         <v>25</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
       <c r="R2" s="12">
         <v>20</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,13 +1251,13 @@
       <selection activeCell="B12" sqref="B12:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.25" customHeight="1">
+    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1177,37 +1305,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1243,13 +1371,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1257,7 +1385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1265,37 +1393,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1303,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1311,19 +1439,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>

--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28504583-6299-944A-9FE6-851816C358E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3620072-5017-B747-9FA6-C98C5C72A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -287,9 +286,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -423,6 +419,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5D15D7-4B0D-4DDA-9F8C-DBBA2C657F04}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1178,61 +1177,61 @@
         <v>400</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="11">
         <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="11">
         <v>30</v>
       </c>
       <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
       </c>
       <c r="N2" s="12">
         <v>25</v>
       </c>
       <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
         <v>71</v>
-      </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>72</v>
       </c>
       <c r="R2" s="12">
         <v>20</v>
       </c>
       <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
         <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1247,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF525740-11E0-462E-905E-6D1ECC054444}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,182 +1277,182 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3620072-5017-B747-9FA6-C98C5C72A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A409C-B14F-4071-9269-617B2555B8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="3" r:id="rId1"/>
@@ -45,157 +45,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{28608245-99E2-4976-90EC-C2615A62D31D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=d81e996d-f5b7-42ae-ab21-4b9b745926ce</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA597719-DF57-4764-9B42-BF9C5EDFEB54}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{864C055B-6DCE-4781-A0F0-12FAFD3E7474}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{4B042B95-99B8-4875-9CFA-A25EAB642D56}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{CF5226E9-AE46-4139-A908-B7207A41A138}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{B5D0AA6A-5860-45A2-B29C-5D3B15EC4D59}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{981121BE-7BB1-401D-BD5E-B4A01E83784A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{D3956D71-4CC2-4867-8B6C-A8884B956843}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{58F54590-CB69-4851-80AE-FAF6A07D0123}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -203,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Source Name</t>
   </si>
@@ -328,27 +247,12 @@
     <t>growth chamber</t>
   </si>
   <si>
-    <t>growth protocol</t>
-  </si>
-  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
-  </si>
-  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>EFO</t>
-  </si>
-  <si>
     <t>#AUTHORS list</t>
   </si>
   <si>
@@ -422,6 +326,15 @@
   </si>
   <si>
     <t>1.0.3</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
   </si>
 </sst>
 </file>
@@ -610,8 +523,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -725,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,7 +678,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -871,7 +784,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,7 +969,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="748" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1085,26 +998,26 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="28.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="28.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="30.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="31.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1172,66 +1085,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="10">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="11">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J2" s="11">
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N2" s="12">
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
       </c>
       <c r="R2" s="12">
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
         <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1247,16 +1160,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1272,15 +1186,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1288,7 +1202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1304,37 +1218,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1345,114 +1259,109 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/dataplant/growth_chamber.xlsx
+++ b/templates/dataplant/growth_chamber.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A409C-B14F-4071-9269-617B2555B8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A1E01-96DD-4465-9C2C-CDDE978C585E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_chamber" sheetId="3" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
